--- a/configs/creds_file.xlsx
+++ b/configs/creds_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/PycharmProjects/test_automation_framework_nov/configs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934C65FE-F95C-8D42-AE9F-AB6C3B6240D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385E9197-500F-1B48-AE31-EF469B158F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{65144EEF-1F90-C947-8815-970505B648B2}"/>
   </bookViews>
@@ -2258,7 +2258,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
